--- a/artv_500.xlsx
+++ b/artv_500.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
   <si>
     <r>
       <rPr>
@@ -320,6 +320,9 @@
   </si>
   <si>
     <t>Professor Regente - Braile</t>
+  </si>
+  <si>
+    <t>FIM - ARTES VISUAIS</t>
   </si>
 </sst>
 </file>
@@ -472,6 +475,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -481,31 +490,25 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -812,7 +815,7 @@
   <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -831,10 +834,10 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="24.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="11"/>
+      <c r="B2" s="7"/>
     </row>
     <row r="3" spans="1:2" ht="24.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
@@ -884,7 +887,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>28</v>
+      </c>
+    </row>
     <row r="10" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="11" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="12" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -926,13 +933,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="8"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="10"/>
     </row>
     <row r="2" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -941,11 +948,11 @@
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="8"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="10"/>
     </row>
     <row r="3" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
@@ -954,20 +961,20 @@
       <c r="B3" s="2">
         <v>240069</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="14"/>
-      <c r="E3" s="13"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="16"/>
     </row>
     <row r="4" spans="1:6" ht="30.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="11"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="7"/>
     </row>
     <row r="5" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
@@ -976,11 +983,11 @@
       <c r="B5" s="2">
         <v>240035</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="14"/>
-      <c r="E5" s="13"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="16"/>
     </row>
     <row r="6" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
@@ -989,11 +996,11 @@
       <c r="B6" s="2">
         <v>240008</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="14"/>
-      <c r="E6" s="13"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="16"/>
     </row>
     <row r="7" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
@@ -1002,11 +1009,11 @@
       <c r="B7" s="2">
         <v>240079</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="14"/>
-      <c r="E7" s="13"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="16"/>
     </row>
     <row r="8" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
@@ -1015,11 +1022,11 @@
       <c r="B8" s="2">
         <v>240007</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="14"/>
-      <c r="E8" s="13"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="16"/>
     </row>
     <row r="9" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
@@ -1028,11 +1035,11 @@
       <c r="B9" s="2">
         <v>240040</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="14"/>
-      <c r="E9" s="13"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="16"/>
     </row>
     <row r="10" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
@@ -1041,11 +1048,11 @@
       <c r="B10" s="2">
         <v>240002</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="14"/>
-      <c r="E10" s="13"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="16"/>
     </row>
     <row r="11" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
@@ -1054,11 +1061,11 @@
       <c r="B11" s="2">
         <v>240006</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="14"/>
-      <c r="E11" s="13"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="16"/>
     </row>
     <row r="12" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
@@ -1067,11 +1074,11 @@
       <c r="B12" s="2">
         <v>240053</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="14"/>
-      <c r="E12" s="13"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="16"/>
     </row>
     <row r="13" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
@@ -1080,44 +1087,45 @@
       <c r="B13" s="2">
         <v>240067</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="14"/>
-      <c r="E13" s="13"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="16"/>
     </row>
     <row r="14" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="15" t="s">
+      <c r="A14" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
     </row>
     <row r="15" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="17" t="s">
+      <c r="A15" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="17"/>
-      <c r="C15" s="17"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
       <c r="D15" s="5" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="16" t="s">
+      <c r="A16" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="16"/>
-      <c r="C16" s="16"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
       <c r="D16" s="5" t="s">
         <v>26</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A1:E1"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="A14:F14"/>
     <mergeCell ref="A15:C15"/>
@@ -1133,7 +1141,6 @@
     <mergeCell ref="C6:E6"/>
     <mergeCell ref="C7:E7"/>
     <mergeCell ref="C8:E8"/>
-    <mergeCell ref="A1:E1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
